--- a/Data/robust model_data.xlsx
+++ b/Data/robust model_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZEC\OneDrive - 창원대학교\바탕 화면\ROBUST OPTIMIZATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workfolder\Cplex\RobustOpt_Model_for_Wind\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9DF42-FE5D-4C5D-BC6C-792990F17A7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3FFC3-4D31-4A60-A8F0-2C5207990F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="5" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
+    <workbookView xWindow="57480" yWindow="1425" windowWidth="18240" windowHeight="28440" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
   </bookViews>
   <sheets>
     <sheet name="Price_DA" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ramp-rate of BESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +134,10 @@
   </si>
   <si>
     <t>Expected_P_RT_WPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramp-rate of BESS (MW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,22 +541,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA70A0D-8E07-4707-873C-CFE4B2E0BD75}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,7 +564,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -562,7 +573,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -571,7 +582,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -580,7 +591,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -589,7 +600,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -598,7 +609,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -607,7 +618,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -616,7 +627,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -625,7 +636,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -634,7 +645,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -643,7 +654,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -652,7 +663,7 @@
         <v>25.91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -661,7 +672,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -670,7 +681,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -679,7 +690,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -688,7 +699,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -697,7 +708,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -706,7 +717,7 @@
         <v>31.57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -715,7 +726,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -724,7 +735,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -733,7 +744,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -742,7 +753,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -751,7 +762,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -760,7 +771,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -783,18 +794,18 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -802,7 +813,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -811,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -820,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -829,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -838,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -847,7 +858,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -856,7 +867,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -865,7 +876,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -874,7 +885,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -883,7 +894,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -892,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -901,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -910,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -919,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -928,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -937,7 +948,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -946,7 +957,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -955,7 +966,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -964,7 +975,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -973,7 +984,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -982,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -991,7 +1002,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -1000,7 +1011,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -1009,7 +1020,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -1032,13 +1043,13 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>43.47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -1162,7 +1173,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -1204,7 +1215,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -1246,7 +1257,7 @@
         <v>39.340000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1288,7 +1299,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -1330,7 +1341,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -1372,7 +1383,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -1414,7 +1425,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1456,7 +1467,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -1498,7 +1509,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1540,7 +1551,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1582,7 +1593,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1624,7 +1635,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1666,7 +1677,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1708,7 +1719,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -1750,7 +1761,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -1792,7 +1803,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -1834,7 +1845,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -1876,7 +1887,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -1918,7 +1929,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -1960,7 +1971,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -2002,7 +2013,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -2044,7 +2055,7 @@
         <v>23.58</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -2086,7 +2097,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -2109,13 +2120,13 @@
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -2239,7 +2250,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -2281,7 +2292,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -2323,7 +2334,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -2365,7 +2376,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -2407,7 +2418,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -2449,7 +2460,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -2491,7 +2502,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -2533,7 +2544,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -2575,7 +2586,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -2617,7 +2628,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -2659,7 +2670,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -2701,7 +2712,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -2743,7 +2754,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -2785,7 +2796,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -2827,7 +2838,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -2869,7 +2880,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -2911,7 +2922,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -2953,7 +2964,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -2995,7 +3006,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -3037,7 +3048,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -3079,7 +3090,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -3121,7 +3132,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -3163,7 +3174,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -3194,29 +3205,29 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3232,18 +3243,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D86EAF-68FA-4440-962D-FCCA56B02D5C}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -3282,7 +3293,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1">
         <v>1674</v>
@@ -3321,45 +3332,57 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!B2</f>
+        <v>0.253</v>
       </c>
       <c r="C2">
-        <v>34.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!C2</f>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D2">
-        <v>23.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!D2</f>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E2">
-        <v>17.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E2</f>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!F2</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G2">
-        <v>5.0999999999999091</v>
+        <f>0.1*Expected_P_RT_WPR!G2</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>9.2999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!H2</f>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I2</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <f>0.1*Expected_P_RT_WPR!J2</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!K2</f>
+        <v>0.32000000000000006</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!L2</f>
+        <v>0.32800000000000001</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M2</f>
+        <v>0.33500000000000002</v>
       </c>
       <c r="O2">
         <v>1631</v>
@@ -3398,46 +3421,58 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <f>0.1*Expected_P_RT_WPR!B3</f>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C3">
-        <v>39.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!C3</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D3">
-        <v>41.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!D3</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E3">
-        <v>30.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E3</f>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F3">
-        <v>21.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!F3</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G3">
-        <v>25.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!G3</f>
+        <v>0.31800000000000006</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!H3</f>
+        <v>0.315</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I3</f>
+        <v>0.30800000000000005</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!J3</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="K3">
-        <v>4.2999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!K3</f>
+        <v>0.27100000000000002</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!L3</f>
+        <v>0.26400000000000001</v>
       </c>
       <c r="M3">
-        <v>7.7000000000000455</v>
+        <f>0.1*Expected_P_RT_WPR!M3</f>
+        <v>0.26</v>
       </c>
       <c r="O3">
         <v>1612</v>
@@ -3476,46 +3511,58 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <f>0.1*Expected_P_RT_WPR!B4</f>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <f>0.1*Expected_P_RT_WPR!C4</f>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D4">
-        <v>9.9999999999909051E-2</v>
+        <f>0.1*Expected_P_RT_WPR!D4</f>
+        <v>0.26</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <f>0.1*Expected_P_RT_WPR!E4</f>
+        <v>0.252</v>
       </c>
       <c r="F4">
-        <v>1.4000000000000909</v>
+        <f>0.1*Expected_P_RT_WPR!F4</f>
+        <v>0.24500000000000002</v>
       </c>
       <c r="G4">
-        <v>3.0999999999999091</v>
+        <f>0.1*Expected_P_RT_WPR!G4</f>
+        <v>0.252</v>
       </c>
       <c r="H4">
-        <v>5.7999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!H4</f>
+        <v>0.26200000000000001</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I4</f>
+        <v>0.27</v>
       </c>
       <c r="J4">
-        <v>7.7999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!J4</f>
+        <v>0.28799999999999998</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!K4</f>
+        <v>0.29199999999999998</v>
       </c>
       <c r="L4">
-        <v>4.7999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!L4</f>
+        <v>0.28599999999999998</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M4</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="O4">
         <v>1594</v>
@@ -3554,46 +3601,58 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>28.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!B5</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C5">
-        <v>1.5999999999999091</v>
+        <f>0.1*Expected_P_RT_WPR!C5</f>
+        <v>0.27</v>
       </c>
       <c r="D5">
-        <v>11.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!D5</f>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <f>0.1*Expected_P_RT_WPR!E5</f>
+        <v>0.252</v>
       </c>
       <c r="F5">
-        <v>9.5</v>
+        <f>0.1*Expected_P_RT_WPR!F5</f>
+        <v>0.24199999999999999</v>
       </c>
       <c r="G5">
-        <v>11.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!G5</f>
+        <v>0.23199999999999998</v>
       </c>
       <c r="H5">
-        <v>0.79999999999995453</v>
+        <f>0.1*Expected_P_RT_WPR!H5</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="I5">
-        <v>20.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!I5</f>
+        <v>0.24300000000000002</v>
       </c>
       <c r="J5">
-        <v>34.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!J5</f>
+        <v>0.25700000000000001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!K5</f>
+        <v>0.26300000000000001</v>
       </c>
       <c r="L5">
-        <v>8.9000000000000909</v>
+        <f>0.1*Expected_P_RT_WPR!L5</f>
+        <v>0.26700000000000002</v>
       </c>
       <c r="M5">
-        <v>20.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!M5</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="O5">
         <v>1560</v>
@@ -3632,46 +3691,58 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="B6">
-        <v>63.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!B6</f>
+        <v>0.28900000000000003</v>
       </c>
       <c r="C6">
-        <v>66.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!C6</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="D6">
-        <v>39.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D6</f>
+        <v>0.28300000000000003</v>
       </c>
       <c r="E6">
-        <v>57.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!E6</f>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F6">
-        <v>60.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!F6</f>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G6">
-        <v>50.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!G6</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <f>0.1*Expected_P_RT_WPR!H6</f>
+        <v>0.27400000000000002</v>
       </c>
       <c r="I6">
-        <v>47.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!I6</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="J6">
-        <v>48.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!J6</f>
+        <v>0.29900000000000004</v>
       </c>
       <c r="K6">
-        <v>42.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!K6</f>
+        <v>0.31200000000000006</v>
       </c>
       <c r="L6">
-        <v>49.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!L6</f>
+        <v>0.31900000000000001</v>
       </c>
       <c r="M6">
-        <v>49.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!M6</f>
+        <v>0.31600000000000006</v>
       </c>
       <c r="O6">
         <v>1563</v>
@@ -3710,46 +3781,58 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="B7">
-        <v>56.5</v>
+        <f>0.1*Expected_P_RT_WPR!B7</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C7">
-        <v>31.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C7</f>
+        <v>0.315</v>
       </c>
       <c r="D7">
-        <v>51.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!D7</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E7">
-        <v>43.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E7</f>
+        <v>0.32200000000000006</v>
       </c>
       <c r="F7">
-        <v>60.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!F7</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G7">
-        <v>58.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!G7</f>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H7">
-        <v>35.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H7</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="I7">
-        <v>24.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!I7</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="J7">
-        <v>54.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!J7</f>
+        <v>0.35400000000000004</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <f>0.1*Expected_P_RT_WPR!K7</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="L7">
-        <v>69.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!L7</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="M7">
-        <v>43.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!M7</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="O7">
         <v>1606</v>
@@ -3788,46 +3871,58 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!B8</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="C8">
-        <v>10.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!C8</f>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D8">
-        <v>37.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D8</f>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E8">
-        <v>34.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E8</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F8">
-        <v>63.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!F8</f>
+        <v>0.36200000000000004</v>
       </c>
       <c r="G8">
-        <v>44.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!G8</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="H8">
-        <v>48.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!H8</f>
+        <v>0.36800000000000005</v>
       </c>
       <c r="I8">
-        <v>67.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!I8</f>
+        <v>0.36099999999999999</v>
       </c>
       <c r="J8">
-        <v>40.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!J8</f>
+        <v>0.35299999999999998</v>
       </c>
       <c r="K8">
-        <v>77.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K8</f>
+        <v>0.34300000000000003</v>
       </c>
       <c r="L8">
-        <v>73.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!L8</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="M8">
-        <v>54.5</v>
+        <f>0.1*Expected_P_RT_WPR!M8</f>
+        <v>0.36600000000000005</v>
       </c>
       <c r="O8">
         <v>1684</v>
@@ -3866,46 +3961,58 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!B9</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!C9</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D9">
-        <v>3.4000000000000909</v>
+        <f>0.1*Expected_P_RT_WPR!D9</f>
+        <v>0.35400000000000004</v>
       </c>
       <c r="E9">
-        <v>40.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!E9</f>
+        <v>0.34400000000000003</v>
       </c>
       <c r="F9">
-        <v>18.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!F9</f>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G9">
-        <v>46.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!G9</f>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H9">
-        <v>56.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H9</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="I9">
-        <v>83.5</v>
+        <f>0.1*Expected_P_RT_WPR!I9</f>
+        <v>0.34</v>
       </c>
       <c r="J9">
-        <v>26</v>
+        <f>0.1*Expected_P_RT_WPR!J9</f>
+        <v>0.33900000000000002</v>
       </c>
       <c r="K9">
-        <v>59.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K9</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="L9">
-        <v>49.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!L9</f>
+        <v>0.34</v>
       </c>
       <c r="M9">
-        <v>47.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!M9</f>
+        <v>0.34500000000000003</v>
       </c>
       <c r="O9">
         <v>1710</v>
@@ -3944,46 +4051,58 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B10">
-        <v>60.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!B10</f>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C10">
-        <v>46.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C10</f>
+        <v>0.34900000000000003</v>
       </c>
       <c r="D10">
-        <v>43.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!D10</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E10">
-        <v>52.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E10</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="F10">
-        <v>53.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!F10</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="G10">
-        <v>43.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!G10</f>
+        <v>0.35400000000000004</v>
       </c>
       <c r="H10">
-        <v>49.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H10</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I10">
-        <v>65.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!I10</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="J10">
-        <v>62.5</v>
+        <f>0.1*Expected_P_RT_WPR!J10</f>
+        <v>0.33800000000000002</v>
       </c>
       <c r="K10">
-        <v>73.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K10</f>
+        <v>0.34300000000000003</v>
       </c>
       <c r="L10">
-        <v>57.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!L10</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="M10">
-        <v>72.5</v>
+        <f>0.1*Expected_P_RT_WPR!M10</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="O10">
         <v>1736</v>
@@ -4022,46 +4141,58 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="B11">
-        <v>81.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!B11</f>
+        <v>0.37000000000000005</v>
       </c>
       <c r="C11">
-        <v>54.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!C11</f>
+        <v>0.35800000000000004</v>
       </c>
       <c r="D11">
-        <v>77.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D11</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="E11">
-        <v>83.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!E11</f>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F11">
-        <v>78.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!F11</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G11">
-        <v>64.5</v>
+        <f>0.1*Expected_P_RT_WPR!G11</f>
+        <v>0.31800000000000006</v>
       </c>
       <c r="H11">
-        <v>65.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H11</f>
+        <v>0.30200000000000005</v>
       </c>
       <c r="I11">
-        <v>66.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!I11</f>
+        <v>0.29100000000000004</v>
       </c>
       <c r="J11">
-        <v>81</v>
+        <f>0.1*Expected_P_RT_WPR!J11</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K11">
-        <v>85.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K11</f>
+        <v>0.27400000000000002</v>
       </c>
       <c r="L11">
-        <v>68.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!L11</f>
+        <v>0.28100000000000003</v>
       </c>
       <c r="M11">
-        <v>95.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!M11</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="O11">
         <v>1747</v>
@@ -4100,46 +4231,58 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="B12">
-        <v>117.5</v>
+        <f>0.1*Expected_P_RT_WPR!B12</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="C12">
-        <v>82.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!C12</f>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D12">
-        <v>109.79999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!D12</f>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E12">
-        <v>86.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!E12</f>
+        <v>0.27599999999999997</v>
       </c>
       <c r="F12">
-        <v>93.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!F12</f>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <f>0.1*Expected_P_RT_WPR!G12</f>
+        <v>0.27300000000000002</v>
       </c>
       <c r="H12">
-        <v>81.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H12</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I12">
-        <v>95.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!I12</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J12">
-        <v>106.79999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!J12</f>
+        <v>0.29500000000000004</v>
       </c>
       <c r="K12">
-        <v>91.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K12</f>
+        <v>0.29500000000000004</v>
       </c>
       <c r="L12">
-        <v>71.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!L12</f>
+        <v>0.30099999999999999</v>
       </c>
       <c r="M12">
-        <v>84.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!M12</f>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O12">
         <v>1753</v>
@@ -4178,46 +4321,58 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
       <c r="B13">
-        <v>61.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!B13</f>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <f>0.1*Expected_P_RT_WPR!C13</f>
+        <v>0.309</v>
       </c>
       <c r="D13">
-        <v>89.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!D13</f>
+        <v>0.317</v>
       </c>
       <c r="E13">
-        <v>61.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!E13</f>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F13">
-        <v>107.70000000000005</v>
+        <f>0.1*Expected_P_RT_WPR!F13</f>
+        <v>0.33900000000000002</v>
       </c>
       <c r="G13">
-        <v>90.5</v>
+        <f>0.1*Expected_P_RT_WPR!G13</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="H13">
-        <v>92.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H13</f>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I13">
-        <v>73.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!I13</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="J13">
-        <v>86.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!J13</f>
+        <v>0.35699999999999998</v>
       </c>
       <c r="K13">
-        <v>98.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!K13</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L13">
-        <v>101.29999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!L13</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="M13">
-        <v>68.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!M13</f>
+        <v>0.34500000000000003</v>
       </c>
       <c r="O13">
         <v>1738</v>
@@ -4256,46 +4411,58 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>93.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!B14</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C14">
-        <v>71.5</v>
+        <f>0.1*Expected_P_RT_WPR!C14</f>
+        <v>0.33</v>
       </c>
       <c r="D14">
-        <v>107.20000000000005</v>
+        <f>0.1*Expected_P_RT_WPR!D14</f>
+        <v>0.317</v>
       </c>
       <c r="E14">
-        <v>130.09999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!E14</f>
+        <v>0.309</v>
       </c>
       <c r="F14">
-        <v>120.70000000000005</v>
+        <f>0.1*Expected_P_RT_WPR!F14</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G14">
-        <v>102.59999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!G14</f>
+        <v>0.29900000000000004</v>
       </c>
       <c r="H14">
-        <v>96.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!H14</f>
+        <v>0.29199999999999998</v>
       </c>
       <c r="I14">
-        <v>104.09999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!I14</f>
+        <v>0.28599999999999998</v>
       </c>
       <c r="J14">
-        <v>107.5</v>
+        <f>0.1*Expected_P_RT_WPR!J14</f>
+        <v>0.28700000000000003</v>
       </c>
       <c r="K14">
-        <v>125.5</v>
+        <f>0.1*Expected_P_RT_WPR!K14</f>
+        <v>0.29300000000000004</v>
       </c>
       <c r="L14">
-        <v>111.90000000000009</v>
+        <f>0.1*Expected_P_RT_WPR!L14</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="M14">
-        <v>95.5</v>
+        <f>0.1*Expected_P_RT_WPR!M14</f>
+        <v>0.27599999999999997</v>
       </c>
       <c r="O14">
         <v>1742</v>
@@ -4334,46 +4501,58 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="B15">
-        <v>90.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!B15</f>
+        <v>0.27599999999999997</v>
       </c>
       <c r="C15">
-        <v>113.29999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!C15</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D15">
-        <v>83.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D15</f>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E15">
-        <v>107.20000000000005</v>
+        <f>0.1*Expected_P_RT_WPR!E15</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="F15">
-        <v>93.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!F15</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="G15">
-        <v>89.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!G15</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="H15">
-        <v>78.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!H15</f>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I15">
-        <v>87.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!I15</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="J15">
-        <v>84.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!J15</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K15">
-        <v>102.79999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!K15</f>
+        <v>0.27</v>
       </c>
       <c r="L15">
-        <v>91</v>
+        <f>0.1*Expected_P_RT_WPR!L15</f>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M15">
-        <v>92.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!M15</f>
+        <v>0.26400000000000001</v>
       </c>
       <c r="O15">
         <v>1741</v>
@@ -4412,46 +4591,58 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="B16">
-        <v>102.59999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!B16</f>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C16">
-        <v>70.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!C16</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <f>0.1*Expected_P_RT_WPR!D16</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E16">
-        <v>96.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E16</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="F16">
-        <v>108.90000000000009</v>
+        <f>0.1*Expected_P_RT_WPR!F16</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G16">
-        <v>101.5</v>
+        <f>0.1*Expected_P_RT_WPR!G16</f>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H16">
-        <v>114.09999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!H16</f>
+        <v>0.254</v>
       </c>
       <c r="I16">
-        <v>93.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!I16</f>
+        <v>0.26200000000000001</v>
       </c>
       <c r="J16">
-        <v>96.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!J16</f>
+        <v>0.27</v>
       </c>
       <c r="K16">
-        <v>98.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!K16</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L16">
-        <v>92.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!L16</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M16">
-        <v>83.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!M16</f>
+        <v>0.27700000000000002</v>
       </c>
       <c r="O16">
         <v>1749</v>
@@ -4490,46 +4681,58 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="B17">
-        <v>73.5</v>
+        <f>0.1*Expected_P_RT_WPR!B17</f>
+        <v>0.29100000000000004</v>
       </c>
       <c r="C17">
-        <v>84.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C17</f>
+        <v>0.28700000000000003</v>
       </c>
       <c r="D17">
-        <v>82.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!D17</f>
+        <v>0.29500000000000004</v>
       </c>
       <c r="E17">
-        <v>77.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E17</f>
+        <v>0.28599999999999998</v>
       </c>
       <c r="F17">
-        <v>88.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!F17</f>
+        <v>0.28900000000000003</v>
       </c>
       <c r="G17">
-        <v>101.5</v>
+        <f>0.1*Expected_P_RT_WPR!G17</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="H17">
-        <v>102.79999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!H17</f>
+        <v>0.27799999999999997</v>
       </c>
       <c r="I17">
-        <v>107</v>
+        <f>0.1*Expected_P_RT_WPR!I17</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="J17">
-        <v>115.79999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!J17</f>
+        <v>0.29100000000000004</v>
       </c>
       <c r="K17">
-        <v>62.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K17</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L17">
-        <v>89.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!L17</f>
+        <v>0.30099999999999999</v>
       </c>
       <c r="M17">
-        <v>80.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!M17</f>
+        <v>0.30800000000000005</v>
       </c>
       <c r="O17">
         <v>1784</v>
@@ -4568,46 +4771,58 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
       </c>
       <c r="B18">
-        <v>63.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!B18</f>
+        <v>0.30600000000000005</v>
       </c>
       <c r="C18">
-        <v>59.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!C18</f>
+        <v>0.311</v>
       </c>
       <c r="D18">
-        <v>38.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!D18</f>
+        <v>0.317</v>
       </c>
       <c r="E18">
-        <v>70.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!E18</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F18">
-        <v>70.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!F18</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="G18">
-        <v>64.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!G18</f>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H18">
-        <v>52.5</v>
+        <f>0.1*Expected_P_RT_WPR!H18</f>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I18">
-        <v>117.40000000000009</v>
+        <f>0.1*Expected_P_RT_WPR!I18</f>
+        <v>0.32700000000000001</v>
       </c>
       <c r="J18">
-        <v>83.5</v>
+        <f>0.1*Expected_P_RT_WPR!J18</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="K18">
-        <v>73.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!K18</f>
+        <v>0.33900000000000002</v>
       </c>
       <c r="L18">
-        <v>98.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!L18</f>
+        <v>0.35699999999999998</v>
       </c>
       <c r="M18">
-        <v>114.5</v>
+        <f>0.1*Expected_P_RT_WPR!M18</f>
+        <v>0.36600000000000005</v>
       </c>
       <c r="O18">
         <v>1882</v>
@@ -4646,46 +4861,58 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <f>0.1*Expected_P_RT_WPR!B19</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="C19">
-        <v>28.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C19</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D19">
-        <v>15.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!D19</f>
+        <v>0.35800000000000004</v>
       </c>
       <c r="E19">
-        <v>30.5</v>
+        <f>0.1*Expected_P_RT_WPR!E19</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F19">
-        <v>61.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!F19</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="G19">
-        <v>67.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!G19</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="H19">
-        <v>66.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!H19</f>
+        <v>0.36299999999999999</v>
       </c>
       <c r="I19">
-        <v>108.09999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!I19</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J19">
-        <v>100.59999999999991</v>
+        <f>0.1*Expected_P_RT_WPR!J19</f>
+        <v>0.36499999999999999</v>
       </c>
       <c r="K19">
-        <v>118.70000000000005</v>
+        <f>0.1*Expected_P_RT_WPR!K19</f>
+        <v>0.376</v>
       </c>
       <c r="L19">
-        <v>150.29999999999995</v>
+        <f>0.1*Expected_P_RT_WPR!L19</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="M19">
-        <v>141</v>
+        <f>0.1*Expected_P_RT_WPR!M19</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="O19">
         <v>1951</v>
@@ -4724,46 +4951,58 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <f>0.1*Expected_P_RT_WPR!B20</f>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <f>0.1*Expected_P_RT_WPR!C20</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D20">
-        <v>70.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D20</f>
+        <v>0.35800000000000004</v>
       </c>
       <c r="E20">
-        <v>70.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!E20</f>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F20">
-        <v>82</v>
+        <f>0.1*Expected_P_RT_WPR!F20</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="G20">
-        <v>62.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!G20</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="H20">
-        <v>36.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!H20</f>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I20">
-        <v>31</v>
+        <f>0.1*Expected_P_RT_WPR!I20</f>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J20">
-        <v>41.5</v>
+        <f>0.1*Expected_P_RT_WPR!J20</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="K20">
-        <v>40.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!K20</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="L20">
-        <v>53.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!L20</f>
+        <v>0.35699999999999998</v>
       </c>
       <c r="M20">
-        <v>75.5</v>
+        <f>0.1*Expected_P_RT_WPR!M20</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="O20">
         <v>1940</v>
@@ -4802,46 +5041,58 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
       </c>
       <c r="B21">
-        <v>79.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!B21</f>
+        <v>0.35299999999999998</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <f>0.1*Expected_P_RT_WPR!C21</f>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D21">
-        <v>65.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!D21</f>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E21">
-        <v>54</v>
+        <f>0.1*Expected_P_RT_WPR!E21</f>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F21">
-        <v>49.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!F21</f>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G21">
-        <v>64.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!G21</f>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H21">
-        <v>52.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!H21</f>
+        <v>0.34500000000000003</v>
       </c>
       <c r="I21">
-        <v>67.5</v>
+        <f>0.1*Expected_P_RT_WPR!I21</f>
+        <v>0.35299999999999998</v>
       </c>
       <c r="J21">
-        <v>46.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!J21</f>
+        <v>0.35600000000000004</v>
       </c>
       <c r="K21">
-        <v>57.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!K21</f>
+        <v>0.35699999999999998</v>
       </c>
       <c r="L21">
-        <v>57.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!L21</f>
+        <v>0.36400000000000005</v>
       </c>
       <c r="M21">
-        <v>44.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!M21</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="O21">
         <v>1914</v>
@@ -4880,46 +5131,58 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
       </c>
       <c r="B22">
-        <v>78.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!B22</f>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C22">
-        <v>71.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C22</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D22">
-        <v>47.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!D22</f>
+        <v>0.38</v>
       </c>
       <c r="E22">
-        <v>72.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!E22</f>
+        <v>0.379</v>
       </c>
       <c r="F22">
-        <v>33.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!F22</f>
+        <v>0.378</v>
       </c>
       <c r="G22">
-        <v>45.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!G22</f>
+        <v>0.37400000000000005</v>
       </c>
       <c r="H22">
-        <v>18.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!H22</f>
+        <v>0.36899999999999999</v>
       </c>
       <c r="I22">
-        <v>18</v>
+        <f>0.1*Expected_P_RT_WPR!I22</f>
+        <v>0.375</v>
       </c>
       <c r="J22">
-        <v>18.5</v>
+        <f>0.1*Expected_P_RT_WPR!J22</f>
+        <v>0.377</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!K22</f>
+        <v>0.37400000000000005</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <f>0.1*Expected_P_RT_WPR!L22</f>
+        <v>0.37200000000000005</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M22</f>
+        <v>0.36499999999999999</v>
       </c>
       <c r="O22">
         <v>1863</v>
@@ -4958,46 +5221,58 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
       </c>
       <c r="B23">
-        <v>53.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!B23</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C23">
-        <v>50.599999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C23</f>
+        <v>0.34600000000000003</v>
       </c>
       <c r="D23">
-        <v>67.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!D23</f>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E23">
-        <v>24.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!E23</f>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F23">
-        <v>35.299999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!F23</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G23">
-        <v>23.200000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!G23</f>
+        <v>0.31800000000000006</v>
       </c>
       <c r="H23">
-        <v>19.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!H23</f>
+        <v>0.32200000000000006</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I23</f>
+        <v>0.31800000000000006</v>
       </c>
       <c r="J23">
-        <v>4.9000000000000909</v>
+        <f>0.1*Expected_P_RT_WPR!J23</f>
+        <v>0.32400000000000007</v>
       </c>
       <c r="K23">
-        <v>29.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!K23</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!L23</f>
+        <v>0.33100000000000002</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M23</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="O23">
         <v>1794</v>
@@ -5036,46 +5311,58 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
       </c>
       <c r="B24">
-        <v>47.900000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!B24</f>
+        <v>0.35400000000000004</v>
       </c>
       <c r="C24">
-        <v>28.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C24</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="D24">
-        <v>15.799999999999955</v>
+        <f>0.1*Expected_P_RT_WPR!D24</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!E24</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="F24">
-        <v>24.5</v>
+        <f>0.1*Expected_P_RT_WPR!F24</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!G24</f>
+        <v>0.33400000000000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!H24</f>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I24</f>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!J24</f>
+        <v>0.34400000000000003</v>
       </c>
       <c r="K24">
-        <v>0.59999999999990905</v>
+        <f>0.1*Expected_P_RT_WPR!K24</f>
+        <v>0.35400000000000004</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!L24</f>
+        <v>0.35899999999999999</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M24</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="O24">
         <v>1705</v>
@@ -5114,63 +5401,120 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <f>0.1*Expected_P_RT_WPR!B25</f>
+        <v>0.34500000000000003</v>
       </c>
       <c r="C25">
-        <v>21.099999999999909</v>
+        <f>0.1*Expected_P_RT_WPR!C25</f>
+        <v>0.34</v>
       </c>
       <c r="D25">
-        <v>19.700000000000045</v>
+        <f>0.1*Expected_P_RT_WPR!D25</f>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <f>0.1*Expected_P_RT_WPR!E25</f>
+        <v>0.34900000000000003</v>
       </c>
       <c r="F25">
-        <v>15.400000000000091</v>
+        <f>0.1*Expected_P_RT_WPR!F25</f>
+        <v>0.36000000000000004</v>
       </c>
       <c r="G25">
-        <v>7.2999999999999545</v>
+        <f>0.1*Expected_P_RT_WPR!G25</f>
+        <v>0.36099999999999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!H25</f>
+        <v>0.35200000000000004</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!I25</f>
+        <v>0.34700000000000003</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!J25</f>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!K25</f>
+        <v>0.34500000000000003</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!L25</f>
+        <v>0.33700000000000002</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <f>0.1*Expected_P_RT_WPR!M25</f>
+        <v>0.32300000000000001</v>
       </c>
       <c r="O25">
         <v>1640</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="B26">
-        <v>56.299999999999955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+        <f>0.1*Expected_P_RT_WPR!B26</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C26">
+        <f>0.1*Expected_P_RT_WPR!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>0.1*Expected_P_RT_WPR!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>0.1*Expected_P_RT_WPR!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>0.1*Expected_P_RT_WPR!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>0.1*Expected_P_RT_WPR!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>0.1*Expected_P_RT_WPR!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>0.1*Expected_P_RT_WPR!I26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>0.1*Expected_P_RT_WPR!J26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>0.1*Expected_P_RT_WPR!K26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>0.1*Expected_P_RT_WPR!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>0.1*Expected_P_RT_WPR!M26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="N27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O27">
         <v>1710.6</v>
@@ -5209,7 +5553,7 @@
         <v>1671.3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="O28">
         <v>1642</v>
       </c>
@@ -5247,7 +5591,7 @@
         <v>1638.7</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>36.599999999999909</v>
       </c>
@@ -5321,7 +5665,7 @@
         <v>1610.5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>11</v>
       </c>
@@ -5395,7 +5739,7 @@
         <v>1614.7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2.5</v>
       </c>
@@ -5469,7 +5813,7 @@
         <v>1609.1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>28.900000000000091</v>
       </c>
@@ -5543,7 +5887,7 @@
         <v>1606.9</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>63.299999999999955</v>
       </c>
@@ -5617,7 +5961,7 @@
         <v>1660.5</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>56.5</v>
       </c>
@@ -5691,7 +6035,7 @@
         <v>1731.1</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0</v>
       </c>
@@ -5765,7 +6109,7 @@
         <v>1782.5</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0</v>
       </c>
@@ -5839,7 +6183,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>60.700000000000045</v>
       </c>
@@ -5913,7 +6257,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>81.099999999999909</v>
       </c>
@@ -5987,7 +6331,7 @@
         <v>1821.8</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>117.5</v>
       </c>
@@ -6061,7 +6405,7 @@
         <v>1833.5</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>61.799999999999955</v>
       </c>
@@ -6135,7 +6479,7 @@
         <v>1834.4</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>93.200000000000045</v>
       </c>
@@ -6209,7 +6553,7 @@
         <v>1824.8</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>90.900000000000091</v>
       </c>
@@ -6283,7 +6627,7 @@
         <v>1829.7</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>102.59999999999991</v>
       </c>
@@ -6357,7 +6701,7 @@
         <v>1898.5</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>73.5</v>
       </c>
@@ -6431,7 +6775,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>63.400000000000091</v>
       </c>
@@ -6505,7 +6849,7 @@
         <v>2026.5</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>8</v>
       </c>
@@ -6579,7 +6923,7 @@
         <v>1984.6</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>92</v>
       </c>
@@ -6653,7 +6997,7 @@
         <v>1909.6</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>79.200000000000045</v>
       </c>
@@ -6727,7 +7071,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>78.799999999999955</v>
       </c>
@@ -6801,7 +7145,7 @@
         <v>1748.9</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>53.299999999999955</v>
       </c>
@@ -6875,7 +7219,7 @@
         <v>1681.2</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>47.900000000000091</v>
       </c>
@@ -6916,7 +7260,7 @@
         <v>1696.3</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>31</v>
       </c>
@@ -6954,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>56.299999999999955</v>
       </c>
@@ -6971,17 +7315,17 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B2" sqref="B2:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -7020,7 +7364,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1">
         <v>1674</v>
@@ -7059,45 +7403,57 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B2</f>
+        <v>0.1265</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C2</f>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D2</f>
+        <v>0.1285</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E2</f>
+        <v>0.1305</v>
       </c>
       <c r="F2">
-        <v>7.9000000000000909</v>
+        <f>0.05*Expected_P_RT_WPR!F2</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G2</f>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H2</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I2">
-        <v>4.9000000000000909</v>
+        <f>0.05*Expected_P_RT_WPR!I2</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J2</f>
+        <v>0.1525</v>
       </c>
       <c r="K2">
-        <v>13.900000000000091</v>
+        <f>0.05*Expected_P_RT_WPR!K2</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="L2">
-        <v>13.099999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!L2</f>
+        <v>0.16400000000000001</v>
       </c>
       <c r="M2">
-        <v>2.7000000000000455</v>
+        <f>0.05*Expected_P_RT_WPR!M2</f>
+        <v>0.16750000000000001</v>
       </c>
       <c r="O2">
         <v>1631</v>
@@ -7136,46 +7492,58 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B3</f>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C3</f>
+        <v>0.16550000000000001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D3</f>
+        <v>0.16250000000000001</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E3</f>
+        <v>0.1615</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F3</f>
+        <v>0.16550000000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G3</f>
+        <v>0.15900000000000003</v>
       </c>
       <c r="H3">
-        <v>3.9000000000000909</v>
+        <f>0.05*Expected_P_RT_WPR!H3</f>
+        <v>0.1575</v>
       </c>
       <c r="I3">
-        <v>11.099999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!I3</f>
+        <v>0.15400000000000003</v>
       </c>
       <c r="J3">
-        <v>7.5999999999999091</v>
+        <f>0.05*Expected_P_RT_WPR!J3</f>
+        <v>0.14250000000000002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K3</f>
+        <v>0.13550000000000001</v>
       </c>
       <c r="L3">
-        <v>3.7999999999999545</v>
+        <f>0.05*Expected_P_RT_WPR!L3</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M3</f>
+        <v>0.13</v>
       </c>
       <c r="O3">
         <v>1612</v>
@@ -7214,46 +7582,58 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B4</f>
+        <v>0.13550000000000001</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C4</f>
+        <v>0.13650000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D4</f>
+        <v>0.13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E4</f>
+        <v>0.126</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F4</f>
+        <v>0.12250000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G4</f>
+        <v>0.126</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H4</f>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I4">
-        <v>3.0999999999999091</v>
+        <f>0.05*Expected_P_RT_WPR!I4</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J4</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K4">
-        <v>5.5999999999999091</v>
+        <f>0.05*Expected_P_RT_WPR!K4</f>
+        <v>0.14599999999999999</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L4</f>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <f>0.05*Expected_P_RT_WPR!M4</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="O4">
         <v>1594</v>
@@ -7292,46 +7672,58 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B5</f>
+        <v>0.13750000000000001</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C5</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D5</f>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E5</f>
+        <v>0.126</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F5</f>
+        <v>0.121</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G5</f>
+        <v>0.11599999999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H5</f>
+        <v>0.11499999999999999</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I5</f>
+        <v>0.12150000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J5</f>
+        <v>0.1285</v>
       </c>
       <c r="K5">
-        <v>3.0999999999999091</v>
+        <f>0.05*Expected_P_RT_WPR!K5</f>
+        <v>0.13150000000000001</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L5</f>
+        <v>0.13350000000000001</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M5</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="O5">
         <v>1560</v>
@@ -7370,46 +7762,58 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B6</f>
+        <v>0.14450000000000002</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C6</f>
+        <v>0.14250000000000002</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D6</f>
+        <v>0.14150000000000001</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E6</f>
+        <v>0.13850000000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F6</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G6</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H6</f>
+        <v>0.13700000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I6</f>
+        <v>0.14250000000000002</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J6</f>
+        <v>0.14950000000000002</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K6</f>
+        <v>0.15600000000000003</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L6</f>
+        <v>0.1595</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M6</f>
+        <v>0.15800000000000003</v>
       </c>
       <c r="O6">
         <v>1563</v>
@@ -7448,46 +7852,58 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B7</f>
+        <v>0.1605</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C7</f>
+        <v>0.1575</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D7</f>
+        <v>0.1605</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E7</f>
+        <v>0.16100000000000003</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F7</f>
+        <v>0.16550000000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G7</f>
+        <v>0.1595</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H7</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I7</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J7</f>
+        <v>0.17700000000000002</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K7</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L7</f>
+        <v>0.1845</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M7</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="O7">
         <v>1606</v>
@@ -7526,46 +7942,58 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
       </c>
       <c r="B8">
-        <v>3.2000000000000455</v>
+        <f>0.05*Expected_P_RT_WPR!B8</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C8</f>
+        <v>0.17050000000000001</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D8</f>
+        <v>0.16750000000000001</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E8</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F8</f>
+        <v>0.18100000000000002</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G8</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H8</f>
+        <v>0.18400000000000002</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I8</f>
+        <v>0.18049999999999999</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J8</f>
+        <v>0.17649999999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K8</f>
+        <v>0.17150000000000001</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L8</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M8</f>
+        <v>0.18300000000000002</v>
       </c>
       <c r="O8">
         <v>1684</v>
@@ -7604,46 +8032,58 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="B9">
-        <v>18.599999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!B9</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="C9">
-        <v>20.700000000000045</v>
+        <f>0.05*Expected_P_RT_WPR!C9</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D9</f>
+        <v>0.17700000000000002</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E9</f>
+        <v>0.17200000000000001</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F9</f>
+        <v>0.16350000000000001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G9</f>
+        <v>0.1615</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H9</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I9</f>
+        <v>0.17</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J9</f>
+        <v>0.16950000000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K9</f>
+        <v>0.16550000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L9</f>
+        <v>0.17</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M9</f>
+        <v>0.17250000000000001</v>
       </c>
       <c r="O9">
         <v>1710</v>
@@ -7682,46 +8122,58 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B10</f>
+        <v>0.16900000000000001</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C10</f>
+        <v>0.17450000000000002</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D10</f>
+        <v>0.17749999999999999</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E10</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F10</f>
+        <v>0.1845</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G10</f>
+        <v>0.17700000000000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H10</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I10</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J10</f>
+        <v>0.16900000000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K10</f>
+        <v>0.17150000000000001</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L10</f>
+        <v>0.17500000000000002</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M10</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="O10">
         <v>1736</v>
@@ -7760,46 +8212,58 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B11</f>
+        <v>0.18500000000000003</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C11</f>
+        <v>0.17900000000000002</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D11</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E11</f>
+        <v>0.16750000000000001</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F11</f>
+        <v>0.16250000000000001</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G11</f>
+        <v>0.15900000000000003</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H11</f>
+        <v>0.15100000000000002</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I11</f>
+        <v>0.14550000000000002</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J11</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K11</f>
+        <v>0.13700000000000001</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L11</f>
+        <v>0.14050000000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M11</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="O11">
         <v>1747</v>
@@ -7838,46 +8302,58 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B12</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C12</f>
+        <v>0.13250000000000001</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D12</f>
+        <v>0.13950000000000001</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E12</f>
+        <v>0.13799999999999998</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F12</f>
+        <v>0.13650000000000001</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G12</f>
+        <v>0.13650000000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H12</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I12</f>
+        <v>0.14499999999999999</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J12</f>
+        <v>0.14750000000000002</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K12</f>
+        <v>0.14750000000000002</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L12</f>
+        <v>0.15049999999999999</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M12</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="O12">
         <v>1753</v>
@@ -7916,46 +8392,58 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B13</f>
+        <v>0.15049999999999999</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C13</f>
+        <v>0.1545</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D13</f>
+        <v>0.1585</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E13</f>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F13</f>
+        <v>0.16950000000000001</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G13</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H13</f>
+        <v>0.16900000000000001</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I13</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J13</f>
+        <v>0.17849999999999999</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K13</f>
+        <v>0.17749999999999999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L13</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M13</f>
+        <v>0.17250000000000001</v>
       </c>
       <c r="O13">
         <v>1738</v>
@@ -7994,46 +8482,58 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B14</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C14</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D14</f>
+        <v>0.1585</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E14</f>
+        <v>0.1545</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F14</f>
+        <v>0.1525</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G14</f>
+        <v>0.14950000000000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H14</f>
+        <v>0.14599999999999999</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I14</f>
+        <v>0.14299999999999999</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J14</f>
+        <v>0.14350000000000002</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K14</f>
+        <v>0.14650000000000002</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L14</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M14</f>
+        <v>0.13799999999999998</v>
       </c>
       <c r="O14">
         <v>1742</v>
@@ -8072,46 +8572,58 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B15</f>
+        <v>0.13799999999999998</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C15</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D15</f>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E15</f>
+        <v>0.14250000000000002</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F15</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G15</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H15</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I15</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J15</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K15</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L15</f>
+        <v>0.1305</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M15</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="O15">
         <v>1741</v>
@@ -8150,46 +8662,58 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B16</f>
+        <v>0.13250000000000001</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C16</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D16</f>
+        <v>0.13750000000000001</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E16</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F16</f>
+        <v>0.13750000000000001</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G16</f>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H16</f>
+        <v>0.127</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I16</f>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J16</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K16</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L16</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M16</f>
+        <v>0.13850000000000001</v>
       </c>
       <c r="O16">
         <v>1749</v>
@@ -8228,46 +8752,58 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B17</f>
+        <v>0.14550000000000002</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C17</f>
+        <v>0.14350000000000002</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D17</f>
+        <v>0.14750000000000002</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E17</f>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F17</f>
+        <v>0.14450000000000002</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G17</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H17</f>
+        <v>0.13899999999999998</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I17</f>
+        <v>0.14250000000000002</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J17</f>
+        <v>0.14550000000000002</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K17</f>
+        <v>0.14499999999999999</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L17</f>
+        <v>0.15049999999999999</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M17</f>
+        <v>0.15400000000000003</v>
       </c>
       <c r="O17">
         <v>1784</v>
@@ -8306,46 +8842,58 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B18</f>
+        <v>0.15300000000000002</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C18</f>
+        <v>0.1555</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D18</f>
+        <v>0.1585</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E18</f>
+        <v>0.1605</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F18</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G18</f>
+        <v>0.16450000000000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H18</f>
+        <v>0.1595</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I18</f>
+        <v>0.16350000000000001</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J18</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K18</f>
+        <v>0.16950000000000001</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L18</f>
+        <v>0.17849999999999999</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M18</f>
+        <v>0.18300000000000002</v>
       </c>
       <c r="O18">
         <v>1882</v>
@@ -8384,46 +8932,58 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B19</f>
+        <v>0.191</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C19</f>
+        <v>0.1845</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D19</f>
+        <v>0.17900000000000002</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E19</f>
+        <v>0.17749999999999999</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F19</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G19</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H19</f>
+        <v>0.18149999999999999</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I19</f>
+        <v>0.1845</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J19</f>
+        <v>0.1825</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K19</f>
+        <v>0.188</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L19</f>
+        <v>0.1845</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M19</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="O19">
         <v>1951</v>
@@ -8462,46 +9022,58 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B20</f>
+        <v>0.17549999999999999</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C20</f>
+        <v>0.17749999999999999</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D20</f>
+        <v>0.17900000000000002</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E20</f>
+        <v>0.17649999999999999</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G20</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H20</f>
+        <v>0.1825</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I20</f>
+        <v>0.17849999999999999</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K20</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L20</f>
+        <v>0.17849999999999999</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M20</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="O20">
         <v>1940</v>
@@ -8540,46 +9112,58 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B21</f>
+        <v>0.17649999999999999</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C21</f>
+        <v>0.17150000000000001</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D21</f>
+        <v>0.16850000000000001</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E21</f>
+        <v>0.16950000000000001</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F21</f>
+        <v>0.17150000000000001</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G21</f>
+        <v>0.17050000000000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H21</f>
+        <v>0.17250000000000001</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I21</f>
+        <v>0.17649999999999999</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J21</f>
+        <v>0.17800000000000002</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K21</f>
+        <v>0.17849999999999999</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L21</f>
+        <v>0.18200000000000002</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!M21</f>
+        <v>0.1845</v>
       </c>
       <c r="O21">
         <v>1914</v>
@@ -8618,46 +9202,58 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B22</f>
+        <v>0.18049999999999999</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C22</f>
+        <v>0.1845</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D22</f>
+        <v>0.19</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E22</f>
+        <v>0.1895</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F22</f>
+        <v>0.189</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G22</f>
+        <v>0.18700000000000003</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H22</f>
+        <v>0.1845</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!I22</f>
+        <v>0.1875</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J22</f>
+        <v>0.1885</v>
       </c>
       <c r="K22">
-        <v>13.900000000000091</v>
+        <f>0.05*Expected_P_RT_WPR!K22</f>
+        <v>0.18700000000000003</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!L22</f>
+        <v>0.18600000000000003</v>
       </c>
       <c r="M22">
-        <v>4.4000000000000909</v>
+        <f>0.05*Expected_P_RT_WPR!M22</f>
+        <v>0.1825</v>
       </c>
       <c r="O22">
         <v>1863</v>
@@ -8696,46 +9292,58 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B23</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C23</f>
+        <v>0.17300000000000001</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D23</f>
+        <v>0.16650000000000001</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E23</f>
+        <v>0.16450000000000001</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F23</f>
+        <v>0.16250000000000001</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G23</f>
+        <v>0.15900000000000003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!H23</f>
+        <v>0.16100000000000003</v>
       </c>
       <c r="I23">
-        <v>4.2000000000000455</v>
+        <f>0.05*Expected_P_RT_WPR!I23</f>
+        <v>0.15900000000000003</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!J23</f>
+        <v>0.16200000000000003</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K23</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <f>0.05*Expected_P_RT_WPR!L23</f>
+        <v>0.16550000000000001</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <f>0.05*Expected_P_RT_WPR!M23</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="O23">
         <v>1794</v>
@@ -8774,46 +9382,58 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B24</f>
+        <v>0.17700000000000002</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C24</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D24</f>
+        <v>0.17749999999999999</v>
       </c>
       <c r="E24">
-        <v>0.29999999999995453</v>
+        <f>0.05*Expected_P_RT_WPR!E24</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F24</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="G24">
-        <v>14.099999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!G24</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H24">
-        <v>12.200000000000045</v>
+        <f>0.05*Expected_P_RT_WPR!H24</f>
+        <v>0.16850000000000001</v>
       </c>
       <c r="I24">
-        <v>24.599999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!I24</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J24">
-        <v>9.5999999999999091</v>
+        <f>0.05*Expected_P_RT_WPR!J24</f>
+        <v>0.17200000000000001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!K24</f>
+        <v>0.17700000000000002</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <f>0.05*Expected_P_RT_WPR!L24</f>
+        <v>0.17949999999999999</v>
       </c>
       <c r="M24">
-        <v>45.099999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!M24</f>
+        <v>0.17500000000000002</v>
       </c>
       <c r="O24">
         <v>1705</v>
@@ -8852,63 +9472,120 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!B25</f>
+        <v>0.17250000000000001</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!C25</f>
+        <v>0.17</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!D25</f>
+        <v>0.16850000000000001</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!E25</f>
+        <v>0.17450000000000002</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!F25</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <f>0.05*Expected_P_RT_WPR!G25</f>
+        <v>0.18049999999999999</v>
       </c>
       <c r="H25">
-        <v>13.299999999999955</v>
+        <f>0.05*Expected_P_RT_WPR!H25</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="I25">
-        <v>8.4000000000000909</v>
+        <f>0.05*Expected_P_RT_WPR!I25</f>
+        <v>0.17350000000000002</v>
       </c>
       <c r="J25">
-        <v>13.099999999999909</v>
+        <f>0.05*Expected_P_RT_WPR!J25</f>
+        <v>0.16750000000000001</v>
       </c>
       <c r="K25">
-        <v>35.400000000000091</v>
+        <f>0.05*Expected_P_RT_WPR!K25</f>
+        <v>0.17250000000000001</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <f>0.05*Expected_P_RT_WPR!L25</f>
+        <v>0.16850000000000001</v>
       </c>
       <c r="M25">
-        <v>23.799999999999955</v>
+        <f>0.05*Expected_P_RT_WPR!M25</f>
+        <v>0.1615</v>
       </c>
       <c r="O25">
         <v>1640</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="B26">
+        <f>0.05*Expected_P_RT_WPR!B26</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C26">
+        <f>0.05*Expected_P_RT_WPR!C26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>0.05*Expected_P_RT_WPR!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>0.05*Expected_P_RT_WPR!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>0.05*Expected_P_RT_WPR!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>0.05*Expected_P_RT_WPR!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>0.05*Expected_P_RT_WPR!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>0.05*Expected_P_RT_WPR!I26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>0.05*Expected_P_RT_WPR!J26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>0.05*Expected_P_RT_WPR!K26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>0.05*Expected_P_RT_WPR!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>0.05*Expected_P_RT_WPR!M26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="N27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O27">
         <v>1710.6</v>
@@ -8947,7 +9624,7 @@
         <v>1671.3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="O28">
         <v>1642</v>
       </c>
@@ -8985,7 +9662,7 @@
         <v>1638.7</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>3</v>
       </c>
@@ -9059,7 +9736,7 @@
         <v>1610.5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3</v>
       </c>
@@ -9133,7 +9810,7 @@
         <v>1614.7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>3</v>
       </c>
@@ -9207,7 +9884,7 @@
         <v>1609.1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>3</v>
       </c>
@@ -9281,7 +9958,7 @@
         <v>1606.9</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>3</v>
       </c>
@@ -9355,7 +10032,7 @@
         <v>1660.5</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>3</v>
       </c>
@@ -9429,7 +10106,7 @@
         <v>1731.1</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>3</v>
       </c>
@@ -9503,7 +10180,7 @@
         <v>1782.5</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>3</v>
       </c>
@@ -9577,7 +10254,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>3</v>
       </c>
@@ -9651,7 +10328,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>3</v>
       </c>
@@ -9725,7 +10402,7 @@
         <v>1821.8</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>3</v>
       </c>
@@ -9799,7 +10476,7 @@
         <v>1833.5</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>3</v>
       </c>
@@ -9873,7 +10550,7 @@
         <v>1834.4</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3</v>
       </c>
@@ -9947,7 +10624,7 @@
         <v>1824.8</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>3</v>
       </c>
@@ -10021,7 +10698,7 @@
         <v>1829.7</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3</v>
       </c>
@@ -10095,7 +10772,7 @@
         <v>1898.5</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>3</v>
       </c>
@@ -10169,7 +10846,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>3</v>
       </c>
@@ -10243,7 +10920,7 @@
         <v>2026.5</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>3</v>
       </c>
@@ -10317,7 +10994,7 @@
         <v>1984.6</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>3</v>
       </c>
@@ -10391,7 +11068,7 @@
         <v>1909.6</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>3</v>
       </c>
@@ -10465,7 +11142,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>3</v>
       </c>
@@ -10539,7 +11216,7 @@
         <v>1748.9</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>3</v>
       </c>
@@ -10613,7 +11290,7 @@
         <v>1681.2</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>3</v>
       </c>
@@ -10654,7 +11331,7 @@
         <v>1696.3</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>3</v>
       </c>
@@ -10692,7 +11369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>3</v>
       </c>
@@ -10712,14 +11389,14 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -10758,7 +11435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10801,7 +11478,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -10845,7 +11522,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -10889,7 +11566,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -10933,7 +11610,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -10977,7 +11654,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -11021,7 +11698,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -11065,7 +11742,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -11109,7 +11786,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -11153,7 +11830,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -11197,7 +11874,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -11241,7 +11918,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -11285,7 +11962,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -11329,7 +12006,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -11373,7 +12050,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -11417,7 +12094,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -11461,7 +12138,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -11505,7 +12182,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -11549,7 +12226,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -11593,7 +12270,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -11637,7 +12314,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -11681,7 +12358,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -11725,7 +12402,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -11769,7 +12446,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -11813,7 +12490,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -11835,7 +12512,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -11851,7 +12528,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>

--- a/Data/robust model_data.xlsx
+++ b/Data/robust model_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Desktop\Workfolder\RobustOpt_Model_for_Wind\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workfolder\Cplex\RobustOpt_Model_for_Wind\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D694266A-8860-4609-B173-EE27F6BA601A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42067A-82BB-4836-BB73-80D09D6AE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1428" windowWidth="18240" windowHeight="28440" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
   </bookViews>
   <sheets>
     <sheet name="Price_DA" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -528,22 +528,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA70A0D-8E07-4707-873C-CFE4B2E0BD75}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -560,7 +560,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -569,7 +569,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -578,7 +578,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -587,7 +587,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -596,7 +596,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -605,7 +605,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -614,7 +614,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -623,7 +623,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -632,7 +632,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -641,7 +641,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -650,7 +650,7 @@
         <v>25.91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -659,7 +659,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -668,7 +668,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -677,7 +677,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -686,7 +686,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -695,7 +695,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -704,7 +704,7 @@
         <v>31.57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -713,7 +713,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -722,7 +722,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -731,7 +731,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -740,7 +740,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -749,7 +749,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -758,7 +758,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -778,21 +778,21 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -836,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -845,7 +845,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -854,7 +854,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -863,7 +863,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -872,7 +872,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -881,7 +881,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -899,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -917,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -935,7 +935,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -944,7 +944,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -953,7 +953,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -962,7 +962,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -971,7 +971,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -980,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -989,7 +989,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -998,7 +998,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -1007,7 +1007,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -1030,13 +1030,13 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>43.47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -1160,7 +1160,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -1202,7 +1202,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -1244,7 +1244,7 @@
         <v>39.340000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1286,7 +1286,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -1328,7 +1328,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -1370,7 +1370,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -1412,7 +1412,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1454,7 +1454,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -1496,7 +1496,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1538,7 +1538,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1580,7 +1580,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1622,7 +1622,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1664,7 +1664,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1706,7 +1706,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -1748,7 +1748,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -1790,7 +1790,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -1832,7 +1832,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -1874,7 +1874,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -1916,7 +1916,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -1958,7 +1958,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -2000,7 +2000,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -2042,7 +2042,7 @@
         <v>23.58</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -2084,7 +2084,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -2103,17 +2103,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12FEFE1-7B0B-4201-9B99-B6CBB50985D3}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2154,1021 +2154,1016 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>15.7</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>14.7</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="G4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="H4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="J4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="K4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="L4" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="M4" s="4">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="B5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="B6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="F6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="H6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="I6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="J6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="K6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="L6" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="M6" s="4">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="B7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="F7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="H7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="I7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="J7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="K7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="L7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="M7" s="4">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>8.89</v>
+      </c>
+      <c r="C7">
+        <v>8.24</v>
+      </c>
+      <c r="D7">
+        <v>7.08</v>
+      </c>
+      <c r="E7">
+        <v>7.99</v>
+      </c>
+      <c r="F7">
+        <v>8.94</v>
+      </c>
+      <c r="G7">
+        <v>8.98</v>
+      </c>
+      <c r="H7">
+        <v>9.85</v>
+      </c>
+      <c r="I7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="J7">
+        <v>9.73</v>
+      </c>
+      <c r="K7">
+        <v>8.85</v>
+      </c>
+      <c r="L7">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="M7">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
       </c>
-      <c r="B8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>7.75</v>
+      </c>
+      <c r="C8">
+        <v>7.75</v>
+      </c>
+      <c r="D8">
+        <v>7.75</v>
+      </c>
+      <c r="E8">
+        <v>7.75</v>
+      </c>
+      <c r="F8">
+        <v>7.75</v>
+      </c>
+      <c r="G8">
+        <v>7.75</v>
+      </c>
+      <c r="H8">
+        <v>7.75</v>
+      </c>
+      <c r="I8">
+        <v>7.75</v>
+      </c>
+      <c r="J8">
+        <v>7.75</v>
+      </c>
+      <c r="K8">
+        <v>7.75</v>
+      </c>
+      <c r="L8">
+        <v>7.75</v>
+      </c>
+      <c r="M8">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="B9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>7.75</v>
+      </c>
+      <c r="C9">
+        <v>7.75</v>
+      </c>
+      <c r="D9">
+        <v>7.75</v>
+      </c>
+      <c r="E9">
+        <v>7.75</v>
+      </c>
+      <c r="F9">
+        <v>7.75</v>
+      </c>
+      <c r="G9">
+        <v>7.75</v>
+      </c>
+      <c r="H9">
+        <v>7.75</v>
+      </c>
+      <c r="I9">
+        <v>7.75</v>
+      </c>
+      <c r="J9">
+        <v>7.75</v>
+      </c>
+      <c r="K9">
+        <v>7.75</v>
+      </c>
+      <c r="L9">
+        <v>7.75</v>
+      </c>
+      <c r="M9">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>7.75</v>
+      </c>
+      <c r="C10">
+        <v>7.75</v>
+      </c>
+      <c r="D10">
+        <v>7.75</v>
+      </c>
+      <c r="E10">
+        <v>7.75</v>
+      </c>
+      <c r="F10">
+        <v>7.75</v>
+      </c>
+      <c r="G10">
+        <v>7.75</v>
+      </c>
+      <c r="H10">
+        <v>7.75</v>
+      </c>
+      <c r="I10">
+        <v>7.75</v>
+      </c>
+      <c r="J10">
+        <v>7.75</v>
+      </c>
+      <c r="K10">
+        <v>7.75</v>
+      </c>
+      <c r="L10">
+        <v>7.75</v>
+      </c>
+      <c r="M10">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="B11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="H11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="I11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="J11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="K11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="L11" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="M11" s="4">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>7.74</v>
+      </c>
+      <c r="C11">
+        <v>7.74</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>7.75</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="B12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="F12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="G12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="H12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="I12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="J12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="K12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="L12" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="M12" s="4">
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="B13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="D13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="F13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="G13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="I13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="J13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="K13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="L13" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="M13" s="4">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="B14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="D14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="E14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="F14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="G14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="H14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="I14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="J14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="K14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="L14" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="M14" s="4">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="B15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="E15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="F15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="G15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="H15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="J15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="K15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="L15" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="M15" s="4">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="B16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="L16" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
       </c>
-      <c r="B17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="F17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="H17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="I17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="J17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="K17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="L17" s="4">
-        <v>7.82</v>
-      </c>
-      <c r="M17" s="4">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>7.74</v>
+      </c>
+      <c r="C17">
+        <v>7.74</v>
+      </c>
+      <c r="D17">
+        <v>7.74</v>
+      </c>
+      <c r="E17">
+        <v>7.75</v>
+      </c>
+      <c r="F17">
+        <v>7.75</v>
+      </c>
+      <c r="G17">
+        <v>7.75</v>
+      </c>
+      <c r="H17">
+        <v>7.75</v>
+      </c>
+      <c r="I17">
+        <v>7.75</v>
+      </c>
+      <c r="J17">
+        <v>7.75</v>
+      </c>
+      <c r="K17">
+        <v>7.75</v>
+      </c>
+      <c r="L17">
+        <v>7.75</v>
+      </c>
+      <c r="M17">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
       </c>
       <c r="B18" s="4">
-        <v>13.5</v>
+        <v>7.88</v>
       </c>
       <c r="C18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="D18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="E18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="F18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="G18" s="4">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="I18" s="4">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="J18" s="4">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4">
-        <v>13.5</v>
+        <v>7.75</v>
       </c>
       <c r="L18" s="4">
-        <v>13.5</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="M18" s="4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
       </c>
-      <c r="B19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="F19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="G19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="H19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="J19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="K19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="L19" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="M19" s="4">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>7.75</v>
+      </c>
+      <c r="D19">
+        <v>7.75</v>
+      </c>
+      <c r="E19">
+        <v>7.75</v>
+      </c>
+      <c r="F19">
+        <v>7.75</v>
+      </c>
+      <c r="G19">
+        <v>7.75</v>
+      </c>
+      <c r="H19">
+        <v>7.75</v>
+      </c>
+      <c r="I19">
+        <v>14.03</v>
+      </c>
+      <c r="J19">
+        <v>13.35</v>
+      </c>
+      <c r="K19">
+        <v>15.61</v>
+      </c>
+      <c r="L19">
+        <v>7.75</v>
+      </c>
+      <c r="M19">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="B20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="H20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="I20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="J20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="K20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="L20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="M20" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>7.75</v>
+      </c>
+      <c r="C20">
+        <v>7.75</v>
+      </c>
+      <c r="D20">
+        <v>7.75</v>
+      </c>
+      <c r="E20">
+        <v>7.75</v>
+      </c>
+      <c r="F20">
+        <v>7.75</v>
+      </c>
+      <c r="G20">
+        <v>7.75</v>
+      </c>
+      <c r="H20">
+        <v>7.75</v>
+      </c>
+      <c r="I20">
+        <v>7.75</v>
+      </c>
+      <c r="J20">
+        <v>7.75</v>
+      </c>
+      <c r="K20">
+        <v>7.75</v>
+      </c>
+      <c r="L20">
+        <v>7.75</v>
+      </c>
+      <c r="M20">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
       </c>
-      <c r="B21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="H21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="I21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="J21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="K21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="L21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="M21" s="4">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>7.75</v>
+      </c>
+      <c r="C21">
+        <v>7.75</v>
+      </c>
+      <c r="D21">
+        <v>7.75</v>
+      </c>
+      <c r="E21">
+        <v>7.75</v>
+      </c>
+      <c r="F21">
+        <v>7.75</v>
+      </c>
+      <c r="G21">
+        <v>7.75</v>
+      </c>
+      <c r="H21">
+        <v>7.75</v>
+      </c>
+      <c r="I21">
+        <v>7.75</v>
+      </c>
+      <c r="J21">
+        <v>7.75</v>
+      </c>
+      <c r="K21">
+        <v>7.75</v>
+      </c>
+      <c r="L21">
+        <v>7.75</v>
+      </c>
+      <c r="M21">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
       </c>
-      <c r="B22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>7.75</v>
+      </c>
+      <c r="C22">
+        <v>7.75</v>
+      </c>
+      <c r="D22">
+        <v>7.75</v>
+      </c>
+      <c r="E22">
+        <v>7.75</v>
+      </c>
+      <c r="F22">
+        <v>7.75</v>
+      </c>
+      <c r="G22">
+        <v>7.75</v>
+      </c>
+      <c r="H22">
+        <v>7.75</v>
+      </c>
+      <c r="I22">
+        <v>7.75</v>
+      </c>
+      <c r="J22">
+        <v>7.75</v>
+      </c>
+      <c r="K22">
+        <v>7.75</v>
+      </c>
+      <c r="L22">
+        <v>7.75</v>
+      </c>
+      <c r="M22">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
       </c>
-      <c r="B23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="F23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="G23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="H23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="I23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="J23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="K23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="L23" s="4">
-        <v>7.73</v>
-      </c>
-      <c r="M23" s="4">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>7.75</v>
+      </c>
+      <c r="C23">
+        <v>7.75</v>
+      </c>
+      <c r="D23">
+        <v>7.75</v>
+      </c>
+      <c r="E23">
+        <v>7.75</v>
+      </c>
+      <c r="F23">
+        <v>7.75</v>
+      </c>
+      <c r="G23">
+        <v>7.75</v>
+      </c>
+      <c r="H23">
+        <v>7.75</v>
+      </c>
+      <c r="I23">
+        <v>7.75</v>
+      </c>
+      <c r="J23">
+        <v>7.75</v>
+      </c>
+      <c r="K23">
+        <v>7.75</v>
+      </c>
+      <c r="L23">
+        <v>7.75</v>
+      </c>
+      <c r="M23">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
       </c>
-      <c r="B24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="F24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="M24" s="4">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>7.75</v>
+      </c>
+      <c r="C24">
+        <v>7.75</v>
+      </c>
+      <c r="D24">
+        <v>7.75</v>
+      </c>
+      <c r="E24">
+        <v>7.75</v>
+      </c>
+      <c r="F24">
+        <v>7.75</v>
+      </c>
+      <c r="G24">
+        <v>7.75</v>
+      </c>
+      <c r="H24">
+        <v>7.75</v>
+      </c>
+      <c r="I24">
+        <v>7.75</v>
+      </c>
+      <c r="J24">
+        <v>7.75</v>
+      </c>
+      <c r="K24">
+        <v>7.75</v>
+      </c>
+      <c r="L24">
+        <v>7.75</v>
+      </c>
+      <c r="M24">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
       </c>
-      <c r="B25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="C25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="E25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="F25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="G25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="H25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="J25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="K25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="L25" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="M25" s="4">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="B26" s="4">
-        <v>13.6</v>
-      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3195,12 +3190,12 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -3280,7 +3275,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -3459,7 +3454,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -3549,7 +3544,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -3639,7 +3634,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -3729,7 +3724,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -3819,7 +3814,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -3909,7 +3904,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -3999,7 +3994,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -4089,7 +4084,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -4179,7 +4174,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -4269,7 +4264,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -4359,7 +4354,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -4449,7 +4444,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -4539,7 +4534,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -4629,7 +4624,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -4719,7 +4714,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -4809,7 +4804,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -4899,7 +4894,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -4989,7 +4984,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -5079,7 +5074,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -5169,7 +5164,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -5259,7 +5254,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -5349,7 +5344,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -5406,7 +5401,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -5460,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="N27" t="s">
         <v>17</v>
       </c>
@@ -5501,7 +5496,7 @@
         <v>1671.3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="O28">
         <v>1642</v>
       </c>
@@ -5539,7 +5534,7 @@
         <v>1638.7</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>36.599999999999909</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>1610.5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>11</v>
       </c>
@@ -5687,7 +5682,7 @@
         <v>1614.7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2.5</v>
       </c>
@@ -5761,7 +5756,7 @@
         <v>1609.1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>28.900000000000091</v>
       </c>
@@ -5835,7 +5830,7 @@
         <v>1606.9</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>63.299999999999955</v>
       </c>
@@ -5909,7 +5904,7 @@
         <v>1660.5</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>56.5</v>
       </c>
@@ -5983,7 +5978,7 @@
         <v>1731.1</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0</v>
       </c>
@@ -6057,7 +6052,7 @@
         <v>1782.5</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0</v>
       </c>
@@ -6131,7 +6126,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>60.700000000000045</v>
       </c>
@@ -6205,7 +6200,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>81.099999999999909</v>
       </c>
@@ -6279,7 +6274,7 @@
         <v>1821.8</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>117.5</v>
       </c>
@@ -6353,7 +6348,7 @@
         <v>1833.5</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>61.799999999999955</v>
       </c>
@@ -6427,7 +6422,7 @@
         <v>1834.4</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>93.200000000000045</v>
       </c>
@@ -6501,7 +6496,7 @@
         <v>1824.8</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>90.900000000000091</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>1829.7</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>102.59999999999991</v>
       </c>
@@ -6649,7 +6644,7 @@
         <v>1898.5</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>73.5</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>63.400000000000091</v>
       </c>
@@ -6797,7 +6792,7 @@
         <v>2026.5</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>8</v>
       </c>
@@ -6871,7 +6866,7 @@
         <v>1984.6</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>92</v>
       </c>
@@ -6945,7 +6940,7 @@
         <v>1909.6</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>79.200000000000045</v>
       </c>
@@ -7019,7 +7014,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>78.799999999999955</v>
       </c>
@@ -7093,7 +7088,7 @@
         <v>1748.9</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>53.299999999999955</v>
       </c>
@@ -7167,7 +7162,7 @@
         <v>1681.2</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>47.900000000000091</v>
       </c>
@@ -7208,7 +7203,7 @@
         <v>1696.3</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>31</v>
       </c>
@@ -7246,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>56.299999999999955</v>
       </c>
@@ -7266,12 +7261,12 @@
       <selection activeCell="B2" sqref="B2:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -7351,7 +7346,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7440,7 +7435,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -7530,7 +7525,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -7620,7 +7615,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -7710,7 +7705,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -7800,7 +7795,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -7890,7 +7885,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -7980,7 +7975,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -8070,7 +8065,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -8160,7 +8155,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -8250,7 +8245,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -8340,7 +8335,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -8430,7 +8425,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -8520,7 +8515,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -8610,7 +8605,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -8700,7 +8695,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -8790,7 +8785,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -8880,7 +8875,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -8970,7 +8965,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -9060,7 +9055,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -9150,7 +9145,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -9240,7 +9235,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -9330,7 +9325,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -9420,7 +9415,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -9477,7 +9472,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -9531,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="N27" t="s">
         <v>17</v>
       </c>
@@ -9572,7 +9567,7 @@
         <v>1671.3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="O28">
         <v>1642</v>
       </c>
@@ -9610,7 +9605,7 @@
         <v>1638.7</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>3</v>
       </c>
@@ -9684,7 +9679,7 @@
         <v>1610.5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3</v>
       </c>
@@ -9758,7 +9753,7 @@
         <v>1614.7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>3</v>
       </c>
@@ -9832,7 +9827,7 @@
         <v>1609.1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>3</v>
       </c>
@@ -9906,7 +9901,7 @@
         <v>1606.9</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>3</v>
       </c>
@@ -9980,7 +9975,7 @@
         <v>1660.5</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>3</v>
       </c>
@@ -10054,7 +10049,7 @@
         <v>1731.1</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>3</v>
       </c>
@@ -10128,7 +10123,7 @@
         <v>1782.5</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>3</v>
       </c>
@@ -10202,7 +10197,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>3</v>
       </c>
@@ -10276,7 +10271,7 @@
         <v>1831.2</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>3</v>
       </c>
@@ -10350,7 +10345,7 @@
         <v>1821.8</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>3</v>
       </c>
@@ -10424,7 +10419,7 @@
         <v>1833.5</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>3</v>
       </c>
@@ -10498,7 +10493,7 @@
         <v>1834.4</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3</v>
       </c>
@@ -10572,7 +10567,7 @@
         <v>1824.8</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>3</v>
       </c>
@@ -10646,7 +10641,7 @@
         <v>1829.7</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3</v>
       </c>
@@ -10720,7 +10715,7 @@
         <v>1898.5</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>3</v>
       </c>
@@ -10794,7 +10789,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>3</v>
       </c>
@@ -10868,7 +10863,7 @@
         <v>2026.5</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>3</v>
       </c>
@@ -10942,7 +10937,7 @@
         <v>1984.6</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>3</v>
       </c>
@@ -11016,7 +11011,7 @@
         <v>1909.6</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>3</v>
       </c>
@@ -11090,7 +11085,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>3</v>
       </c>
@@ -11164,7 +11159,7 @@
         <v>1748.9</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>3</v>
       </c>
@@ -11238,7 +11233,7 @@
         <v>1681.2</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>3</v>
       </c>
@@ -11279,7 +11274,7 @@
         <v>1696.3</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>3</v>
       </c>
@@ -11317,7 +11312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>3</v>
       </c>
@@ -11337,12 +11332,12 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -11383,7 +11378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11426,7 +11421,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -11470,7 +11465,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -11514,7 +11509,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -11558,7 +11553,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -11602,7 +11597,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -11646,7 +11641,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -11690,7 +11685,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -11734,7 +11729,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -11778,7 +11773,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -11822,7 +11817,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -11866,7 +11861,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -11910,7 +11905,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -11954,7 +11949,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -11998,7 +11993,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -12042,7 +12037,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -12086,7 +12081,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -12130,7 +12125,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -12174,7 +12169,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -12218,7 +12213,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -12262,7 +12257,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -12306,7 +12301,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -12350,7 +12345,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -12394,7 +12389,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -12438,7 +12433,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -12460,7 +12455,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -12476,7 +12471,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
